--- a/10.10.70.56/QRPGSRC_QLIBSS/QLIBSS_QRPGSRC.xlsx
+++ b/10.10.70.56/QRPGSRC_QLIBSS/QLIBSS_QRPGSRC.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\git\西祺\seedswine\QLIBSS_QRPGSRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SeedsWine\SeedsWine\10.10.70.56\QRPGSRC_QLIBSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E0DB3F-274E-42A6-8A69-75B6B6E298F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C576E-AB47-4325-9C24-7F1B7829DA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{5D95ADFF-9F07-4B49-A3C4-B4A4CDF17217}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D95ADFF-9F07-4B49-A3C4-B4A4CDF17217}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$100</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="104">
   <si>
     <t>@CHECK</t>
   </si>
@@ -336,6 +339,22 @@
   </si>
   <si>
     <t>已下載</t>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,15 +738,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC3E584-294F-4B4B-98B2-3ED10482C7BC}">
-  <dimension ref="A2:B100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -735,7 +768,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -743,7 +776,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -751,7 +784,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -759,7 +792,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -767,7 +800,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -775,7 +808,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -783,7 +816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -791,7 +824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -799,7 +832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -807,7 +840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -815,7 +848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -823,7 +856,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -831,7 +864,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -839,7 +872,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -847,7 +880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -855,15 +888,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -871,7 +907,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -879,7 +915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -887,7 +923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -895,7 +931,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -903,7 +939,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -911,7 +947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -919,7 +955,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -927,7 +963,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -935,15 +971,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -951,7 +990,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -959,7 +998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -967,7 +1006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -975,7 +1014,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -983,7 +1022,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -991,7 +1030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -999,15 +1038,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1015,7 +1057,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1023,7 +1065,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1031,7 +1073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1039,7 +1081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1047,7 +1089,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1055,7 +1097,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1063,7 +1105,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1071,7 +1113,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1079,7 +1121,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1087,15 +1129,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1148,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1111,15 +1156,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1127,15 +1175,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1143,15 +1194,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1159,15 +1213,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1175,15 +1232,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1191,15 +1251,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1207,7 +1270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1215,7 +1278,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1223,7 +1286,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1520,6 +1583,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C100" xr:uid="{8AC3E584-294F-4B4B-98B2-3ED10482C7BC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
